--- a/组员名单.xlsx
+++ b/组员名单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,14 @@
   </si>
   <si>
     <t>梁**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2242256621@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -52,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +73,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -85,17 +101,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -397,18 +418,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +440,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -429,8 +454,11 @@
       <c r="C2" s="1">
         <v>2015041702</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -438,8 +466,9 @@
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -447,8 +476,9 @@
         <v>5</v>
       </c>
       <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -456,8 +486,9 @@
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -465,10 +496,14 @@
         <v>7</v>
       </c>
       <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>